--- a/main/job_suggestions/candidate_2.xlsx
+++ b/main/job_suggestions/candidate_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>score</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>reason</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -452,7 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The job of SDE Intern is suitable for you because it requires skills that you have already acquired. The job involves designing and developing high-quality web/mobile applications which aligns with your experience in projects such as RAPID and SMART SENSING MIDDLEWARE. Additionally, the use of MERN Stack and MongoDB is also in line with your skills in NodeJS, ExpressJS, and ReactJS.</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -462,7 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The job is moderately suitable for you because your projects have utilized skills such as ReactJS, JavaScript, and CSS which align with the job's requirements. However, as an unpaid internship, it may not be financially viable for you. It also limits your growth opportunities as it is a short-term evaluative internship.</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -473,6 +490,12 @@
       </c>
       <c r="B4" t="n">
         <v>63</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The job is moderately suitable for the candidate. The skills used in the job match with the candidate's skills in NLP, Pytorch, Computer Vision, and Python. However, the candidate's projects do not directly involve NLP and Computer Vision, so further training may be required. The job description mentions prototypes and PoCs, which align with the candidate's experience in developing web applications.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/main/job_suggestions/candidate_2.xlsx
+++ b/main/job_suggestions/candidate_2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,12 +457,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The job of SDE Intern is suitable for you because it requires skills that you have already acquired. The job involves designing and developing high-quality web/mobile applications which aligns with your experience in projects such as RAPID and SMART SENSING MIDDLEWARE. Additionally, the use of MERN Stack and MongoDB is also in line with your skills in NodeJS, ExpressJS, and ReactJS.</t>
+          <t>The SDE Intern job description is suitable for you because it requires skills in MongoDB, ReactJS, JavaScript, Web Development, and NodeJS, which align with your experience and projects. Additionally, the responsibilities of maintaining code, ensuring scalability, and suggesting new features match well with your project experiences. The high score of 92 indicates a strong match between your skills and the job requirements.</t>
         </is>
       </c>
     </row>
@@ -473,12 +472,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The job is moderately suitable for you because your projects have utilized skills such as ReactJS, JavaScript, and CSS which align with the job's requirements. However, as an unpaid internship, it may not be financially viable for you. It also limits your growth opportunities as it is a short-term evaluative internship.</t>
+          <t>The job as a Frontend Engineer Intern (score: 79) is suitable for you because it requires skills such as ReactJS, JavaScript, CSS, Frontend Development which align with your experience in projects like SHAMIYANA APP and SMART SENSING MIDDLEWARE. Your knowledge in these areas will contribute to efficient and visually appealing web design and user experience, making you a valuable addition to the team.</t>
         </is>
       </c>
     </row>
@@ -489,12 +487,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The job is moderately suitable for the candidate. The skills used in the job match with the candidate's skills in NLP, Pytorch, Computer Vision, and Python. However, the candidate's projects do not directly involve NLP and Computer Vision, so further training may be required. The job description mentions prototypes and PoCs, which align with the candidate's experience in developing web applications.</t>
+          <t>The job of NLP engineer is moderately suitable for the candidate. While the candidate has experience in a variety of technologies, including Flutter, Dart, Firebase, NodeJS, ExpressJS, Socket.IO, WebRTC, HTML, CSS, JS, Docker, and ReactJS, they lack specific experience in NLP, Pytorch, Computer Vision, and Python, which are required skills for the job. However, their exposure to various technologies and their ability to learn new ones makes them moderately suitable for the role.</t>
         </is>
       </c>
     </row>

--- a/main/job_suggestions/candidate_2.xlsx
+++ b/main/job_suggestions/candidate_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>reason</t>
         </is>
       </c>
@@ -453,45 +458,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The SDE Intern job description is suitable for you because it requires skills in MongoDB, ReactJS, JavaScript, Web Development, and NodeJS, which align with your experience and projects. Additionally, the responsibilities of maintaining code, ensuring scalability, and suggesting new features match well with your project experiences. The high score of 92 indicates a strong match between your skills and the job requirements.</t>
+          <t>Application Development: Front-end coding for a sweat amino acid analysis app under a Scrum Master. Skills: Flutter, Dart, Android/iOS, Firestore, Firebase Authentication, Cloud Storage/Messaging, Mobile app architecture/design, Git.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>The job description requires front-end coding for a sweat amino acid analysis app using Flutter, Dart, and various Firebase services. Your experience in developing a food delivery platform using Flutter, Dart, and Firebase demonstrates your proficiency in the required skills. Therefore, the job is suitable for you.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The job as a Frontend Engineer Intern (score: 79) is suitable for you because it requires skills such as ReactJS, JavaScript, CSS, Frontend Development which align with your experience in projects like SHAMIYANA APP and SMART SENSING MIDDLEWARE. Your knowledge in these areas will contribute to efficient and visually appealing web design and user experience, making you a valuable addition to the team.</t>
+          <t>SDE Intern: Remote MERN Stack Developer Internship, responsible for designing and developing web/mobile applications using MongoDB, ExpressJS, ReactJS, and NodeJS. Additional tasks include code maintenance, scalability, feature development, and product enhancement suggestions. Skills required: MongoDB, ReactJS, JavaScript, Web Development, NodeJS.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The job as a Remote MERN Stack Developer Internship matches well with your experience in developing web/mobile applications using MongoDB, ExpressJS, ReactJS, and NodeJS. Your skills in MongoDB, ReactJS, JavaScript, and Web Development make you well suited for the tasks of code maintenance, scalability, feature development, and product enhancement.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>69</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Frontend Engineer Intern - Work in a team to ensure consistent web design and user experience, optimize web pages, and maintain brand consistency. Requires excellent communication skills and proficiency in ReactJS, JavaScript, CSS, and NextJS. 3-month evaluative unpaid internship with potential return offers.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The job as a Frontend Engineer Intern at the company is suitable for you because it requires excellent communication skills and proficiency in ReactJS, JavaScript, CSS, and NextJS, which align with your experience in developing web applications using these technologies. The evaluative unpaid internship also provides an opportunity to gain valuable experience and potentially secure return offers. The moderate score suggests that while it may not be a perfect fit, it is still a suitable opportunity for you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>59</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>The job of NLP engineer is moderately suitable for the candidate. While the candidate has experience in a variety of technologies, including Flutter, Dart, Firebase, NodeJS, ExpressJS, Socket.IO, WebRTC, HTML, CSS, JS, Docker, and ReactJS, they lack specific experience in NLP, Pytorch, Computer Vision, and Python, which are required skills for the job. However, their exposure to various technologies and their ability to learn new ones makes them moderately suitable for the role.</t>
+      <c r="B5" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NLP Engineer (Remote): Collect and preprocess text corpora for language model training. Analyze data, develop and improve models. Skills: NLP, Pytorch, Computer Vision, Python.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Based on your projects and the job description, the role of NLP Engineer (Remote) seems moderately suitable for you. While you have experience in utilizing Python and have knowledge of NLP and Pytorch, your projects do not directly align with the job requirements of collecting and preprocessing text corpora for language model training.</t>
         </is>
       </c>
     </row>
